--- a/Linux/DeviceDrivers/Document(important)/11.设备树相关.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/11.设备树相关.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988A6C8-63B9-401D-9E1A-1E9A788D84CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="-195" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="machine_desc" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
   <si>
     <t>start_kernel()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,9 +1301,6 @@
     <t>of_platform_bus_create(child, matches, lookup, parent, true)</t>
   </si>
   <si>
-    <t>struct platform_device *dev = of_platform_device_create_pdata(bus, bus_id, platform_data, parent)</t>
-  </si>
-  <si>
     <t>drivers/of/platform.c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,9 +1379,6 @@
   </si>
   <si>
     <t>of_i2c_register_devices(adap)</t>
-  </si>
-  <si>
-    <t>of_i2c_register_device(adap, node)</t>
   </si>
   <si>
     <t>struct i2c_client *result = i2c_new_device(adap, &amp;info)</t>
@@ -1466,12 +1461,197 @@
     <t>do_one_initcall(*fn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>struct platform_device *dev = of_platform_device_create_pdata(bus, bus_id, platform_data, parent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct platform_device *dev = of_device_alloc(np, bus_id, parent);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev-&gt;dev.of_node = of_node_get(np);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/of/platform.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_imx-&gt;adapter.dev.of_node = pdev-&gt;dev.of_node;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/i2c/busses/i2c-imx.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const __be32 *addr = of_get_property(node, "reg", &amp;len);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/i2c/i2c-core.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of_i2c_register_device(adap, node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.of_node = of_node_get(node);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;irq = info-&gt;irq;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;dev.of_node = info-&gt;of_node;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int status = device_register(&amp;client-&gt;dev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;dev.bus = &amp;i2c_bus_type;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> device_register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i2c_device_probe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过程为同步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_device_probe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int irq = of_irq_get(dev-&gt;of_node, 0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;irq = irq;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1730,7 +1910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,6 +1957,39 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1795,38 +2008,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,7 +2029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1888,7 +2071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,9 +2103,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,6 +2155,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2129,24 +2348,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BZ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78">
+    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78">
+    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2448,7 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="2:78">
+    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2529,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="7"/>
     </row>
-    <row r="6" spans="2:78">
+    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2610,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78">
+    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2691,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78">
+    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2772,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78">
+    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2853,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78">
+    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2934,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78">
+    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2796,7 +3015,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78">
+    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2877,7 +3096,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78">
+    <row r="13" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +3177,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78">
+    <row r="14" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3039,7 +3258,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78">
+    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3339,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78">
+    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -3201,7 +3420,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78">
+    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -3282,7 +3501,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78">
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3363,7 +3582,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78">
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3444,7 +3663,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78">
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3744,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78">
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3606,7 +3825,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
@@ -3687,7 +3906,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78">
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
@@ -3768,7 +3987,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78">
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -3849,7 +4068,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78">
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
@@ -3930,7 +4149,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -4011,7 +4230,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78">
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -4092,7 +4311,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78">
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
@@ -4173,7 +4392,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
@@ -4254,7 +4473,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
@@ -4335,7 +4554,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
@@ -4416,7 +4635,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -4497,7 +4716,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
@@ -4578,7 +4797,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -4659,7 +4878,7 @@
       <c r="BY34" s="6"/>
       <c r="BZ34" s="7"/>
     </row>
-    <row r="35" spans="2:78">
+    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -4740,7 +4959,7 @@
       <c r="BY35" s="6"/>
       <c r="BZ35" s="7"/>
     </row>
-    <row r="36" spans="2:78">
+    <row r="36" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
@@ -4821,7 +5040,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78">
+    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -4902,7 +5121,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
@@ -4983,7 +5202,7 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="10"/>
     </row>
-    <row r="41" spans="2:78">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
@@ -5066,7 +5285,7 @@
       <c r="BY41" s="3"/>
       <c r="BZ41" s="4"/>
     </row>
-    <row r="42" spans="2:78">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
@@ -5147,7 +5366,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
@@ -5228,7 +5447,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -5311,7 +5530,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78">
+    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
@@ -5392,7 +5611,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
@@ -5473,7 +5692,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -5552,7 +5771,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78">
+    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>51</v>
       </c>
@@ -5633,7 +5852,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78">
+    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
@@ -5714,7 +5933,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78">
+    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5793,7 +6012,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78">
+    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
@@ -5876,7 +6095,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78">
+    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>68</v>
       </c>
@@ -5959,7 +6178,7 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78">
+    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -6040,7 +6259,7 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78">
+    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>70</v>
       </c>
@@ -6121,7 +6340,7 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78">
+    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>71</v>
       </c>
@@ -6202,7 +6421,7 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="10"/>
     </row>
-    <row r="56" spans="2:78">
+    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -6281,7 +6500,7 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="6"/>
     </row>
-    <row r="57" spans="2:78">
+    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -6360,7 +6579,7 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="6"/>
     </row>
-    <row r="58" spans="2:78">
+    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -6443,7 +6662,7 @@
       <c r="BY58" s="3"/>
       <c r="BZ58" s="4"/>
     </row>
-    <row r="59" spans="2:78">
+    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>65</v>
       </c>
@@ -6524,7 +6743,7 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78">
+    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
@@ -6605,7 +6824,7 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78">
+    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>43</v>
       </c>
@@ -6686,7 +6905,7 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78">
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -6765,7 +6984,7 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78">
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>54</v>
       </c>
@@ -6846,7 +7065,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78">
+    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
@@ -6927,7 +7146,7 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78">
+    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>56</v>
       </c>
@@ -7008,7 +7227,7 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78">
+    <row r="66" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
@@ -7089,7 +7308,7 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78">
+    <row r="67" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>58</v>
       </c>
@@ -7170,7 +7389,7 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78">
+    <row r="68" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>59</v>
       </c>
@@ -7251,7 +7470,7 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78">
+    <row r="69" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>60</v>
       </c>
@@ -7332,7 +7551,7 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78">
+    <row r="70" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>61</v>
       </c>
@@ -7413,7 +7632,7 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78">
+    <row r="71" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>62</v>
       </c>
@@ -7494,7 +7713,7 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78">
+    <row r="72" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>63</v>
       </c>
@@ -7575,7 +7794,7 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="10"/>
     </row>
-    <row r="75" spans="2:78">
+    <row r="75" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
@@ -7658,7 +7877,7 @@
       <c r="BY75" s="3"/>
       <c r="BZ75" s="4"/>
     </row>
-    <row r="76" spans="2:78">
+    <row r="76" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>75</v>
       </c>
@@ -7739,7 +7958,7 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78">
+    <row r="77" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
@@ -7820,7 +8039,7 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78">
+    <row r="78" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
@@ -7901,7 +8120,7 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78">
+    <row r="79" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
@@ -7990,215 +8209,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BZ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F4" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="23"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="I6" s="24" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="I7" s="18" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="I9" s="24" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="I10" s="18" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I10" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="I12" s="24" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="I13" s="18" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F15" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="2:78">
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
@@ -8281,7 +8500,7 @@
       <c r="BY18" s="3"/>
       <c r="BZ18" s="4"/>
     </row>
-    <row r="19" spans="2:78">
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
@@ -8362,7 +8581,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78">
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
@@ -8443,7 +8662,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78">
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
@@ -8524,7 +8743,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
@@ -8605,7 +8824,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78">
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
@@ -8686,7 +8905,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78">
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
@@ -8767,7 +8986,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78">
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
@@ -8848,7 +9067,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>101</v>
       </c>
@@ -8929,7 +9148,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78">
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
@@ -9010,7 +9229,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78">
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
@@ -9091,7 +9310,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9172,7 +9391,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>105</v>
       </c>
@@ -9253,7 +9472,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -9334,7 +9553,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
@@ -9415,7 +9634,7 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="10"/>
     </row>
-    <row r="35" spans="2:78">
+    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
@@ -9498,7 +9717,7 @@
       <c r="BY35" s="3"/>
       <c r="BZ35" s="4"/>
     </row>
-    <row r="36" spans="2:78">
+    <row r="36" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>111</v>
       </c>
@@ -9579,7 +9798,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78">
+    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
@@ -9660,7 +9879,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>113</v>
       </c>
@@ -9741,7 +9960,7 @@
       <c r="BY38" s="6"/>
       <c r="BZ38" s="7"/>
     </row>
-    <row r="39" spans="2:78">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>114</v>
       </c>
@@ -9822,7 +10041,7 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -9901,7 +10120,7 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
@@ -9984,7 +10203,7 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
@@ -10065,7 +10284,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -10146,7 +10365,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
@@ -10227,7 +10446,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78">
+    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -10306,7 +10525,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>118</v>
       </c>
@@ -10389,7 +10608,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>116</v>
       </c>
@@ -10470,7 +10689,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78">
+    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>119</v>
       </c>
@@ -10551,7 +10770,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78">
+    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>120</v>
       </c>
@@ -10632,7 +10851,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78">
+    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
@@ -10713,7 +10932,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78">
+    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>43</v>
       </c>
@@ -10794,7 +11013,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78">
+    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10873,24 +11092,24 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78">
+    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="28" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -10956,25 +11175,25 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78">
+    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28" t="s">
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -11039,42 +11258,42 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78">
+    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30" t="s">
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="31" t="s">
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="32" t="s">
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
@@ -11126,42 +11345,42 @@
       <c r="BY55" s="6"/>
       <c r="BZ55" s="7"/>
     </row>
-    <row r="56" spans="2:78">
+    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="30" t="s">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31" t="s">
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="32" t="s">
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
@@ -11213,17 +11432,17 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="7"/>
     </row>
-    <row r="57" spans="2:78">
+    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -11294,25 +11513,25 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="7"/>
     </row>
-    <row r="58" spans="2:78">
+    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -11377,42 +11596,42 @@
       <c r="BY58" s="6"/>
       <c r="BZ58" s="7"/>
     </row>
-    <row r="59" spans="2:78">
+    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31" t="s">
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="32" t="s">
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
@@ -11464,42 +11683,42 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78">
+    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="30" t="s">
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31" t="s">
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="32" t="s">
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
@@ -11551,17 +11770,17 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78">
+    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -11632,16 +11851,16 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78">
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -11713,16 +11932,16 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78">
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -11794,7 +12013,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78">
+    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -11875,13 +12094,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:P60"/>
-    <mergeCell ref="Q60:V60"/>
-    <mergeCell ref="W60:AB60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I4:U5"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="I7:U8"/>
+    <mergeCell ref="I9:U9"/>
+    <mergeCell ref="I10:U11"/>
+    <mergeCell ref="I12:U12"/>
+    <mergeCell ref="I13:U14"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:O54"/>
     <mergeCell ref="E59:J59"/>
     <mergeCell ref="K59:P59"/>
     <mergeCell ref="Q59:V59"/>
@@ -11897,17 +12120,13 @@
     <mergeCell ref="D57:I57"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:O58"/>
-    <mergeCell ref="I12:U12"/>
-    <mergeCell ref="I13:U14"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I4:U5"/>
-    <mergeCell ref="I6:U6"/>
-    <mergeCell ref="I7:U8"/>
-    <mergeCell ref="I9:U9"/>
-    <mergeCell ref="I10:U11"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:P60"/>
+    <mergeCell ref="Q60:V60"/>
+    <mergeCell ref="W60:AB60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C62:H62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11915,24 +12134,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78">
+    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:78">
+    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
@@ -12015,7 +12234,7 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="2:78">
+    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>150</v>
       </c>
@@ -12096,7 +12315,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="7"/>
     </row>
-    <row r="6" spans="2:78">
+    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
@@ -12177,7 +12396,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78">
+    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>152</v>
       </c>
@@ -12258,7 +12477,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78">
+    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>153</v>
       </c>
@@ -12339,7 +12558,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78">
+    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>154</v>
       </c>
@@ -12420,7 +12639,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78">
+    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>155</v>
       </c>
@@ -12501,7 +12720,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78">
+    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>156</v>
       </c>
@@ -12582,7 +12801,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78">
+    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
@@ -12663,7 +12882,7 @@
       <c r="BY12" s="9"/>
       <c r="BZ12" s="10"/>
     </row>
-    <row r="15" spans="2:78">
+    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
@@ -12746,7 +12965,7 @@
       <c r="BY15" s="3"/>
       <c r="BZ15" s="4"/>
     </row>
-    <row r="16" spans="2:78">
+    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>131</v>
       </c>
@@ -12827,7 +13046,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78">
+    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>132</v>
       </c>
@@ -12908,7 +13127,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78">
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>133</v>
       </c>
@@ -12989,7 +13208,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78">
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>134</v>
       </c>
@@ -13070,7 +13289,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78">
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>135</v>
       </c>
@@ -13151,7 +13370,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78">
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>136</v>
       </c>
@@ -13232,7 +13451,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>137</v>
       </c>
@@ -13313,7 +13532,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78">
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>138</v>
       </c>
@@ -13394,7 +13613,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78">
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>139</v>
       </c>
@@ -13475,7 +13694,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78">
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>140</v>
       </c>
@@ -13556,7 +13775,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>141</v>
       </c>
@@ -13637,7 +13856,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78">
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>142</v>
       </c>
@@ -13718,7 +13937,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78">
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
@@ -13799,7 +14018,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
@@ -13880,7 +14099,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>145</v>
       </c>
@@ -13961,7 +14180,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
@@ -14042,7 +14261,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>147</v>
       </c>
@@ -14123,7 +14342,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
@@ -14204,7 +14423,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
@@ -14292,26 +14511,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BZ83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:BZ98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78">
+    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78">
+    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -14390,7 +14609,7 @@
       <c r="BY4" s="17"/>
       <c r="BZ4" s="17"/>
     </row>
-    <row r="5" spans="2:78">
+    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -14473,7 +14692,7 @@
       <c r="BY5" s="3"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="2:78">
+    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -14556,7 +14775,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78">
+    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -14639,7 +14858,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78">
+    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -14722,7 +14941,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78">
+    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -14805,7 +15024,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78">
+    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14888,7 +15107,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78">
+    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14971,7 +15190,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78">
+    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -15054,7 +15273,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78">
+    <row r="13" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -15137,7 +15356,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78">
+    <row r="14" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -15220,7 +15439,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78">
+    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -15303,7 +15522,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78">
+    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -15386,7 +15605,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78">
+    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -15469,7 +15688,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78">
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -15552,7 +15771,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78">
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -15635,7 +15854,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78">
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -15718,7 +15937,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78">
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -15801,7 +16020,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -15884,7 +16103,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78">
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -15967,7 +16186,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78">
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -16050,7 +16269,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78">
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -16133,7 +16352,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -16216,7 +16435,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78">
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -16299,7 +16518,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78">
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -16382,7 +16601,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -16465,7 +16684,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -16548,7 +16767,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -16631,7 +16850,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -16714,7 +16933,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78">
+    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -16797,7 +17016,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -16880,7 +17099,7 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="10"/>
     </row>
-    <row r="37" spans="2:78">
+    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>202</v>
       </c>
@@ -16961,7 +17180,7 @@
       <c r="BY37" s="17"/>
       <c r="BZ37" s="17"/>
     </row>
-    <row r="38" spans="2:78">
+    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>195</v>
       </c>
@@ -17044,7 +17263,7 @@
       <c r="BY38" s="3"/>
       <c r="BZ38" s="4"/>
     </row>
-    <row r="39" spans="2:78">
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>186</v>
       </c>
@@ -17127,7 +17346,7 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78">
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
         <v>188</v>
@@ -17210,7 +17429,7 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78">
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
@@ -17293,7 +17512,7 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78">
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>190</v>
       </c>
@@ -17376,7 +17595,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78">
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="16" t="s">
         <v>191</v>
@@ -17459,7 +17678,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78">
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
@@ -17542,7 +17761,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78">
+    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -17625,7 +17844,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78">
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -17708,14 +17927,14 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78">
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -17791,7 +18010,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78">
+    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -17874,7 +18093,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78">
+    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -17957,7 +18176,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78">
+    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -18006,7 +18225,7 @@
       <c r="AS50" s="6"/>
       <c r="AT50" s="6"/>
       <c r="AU50" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV50" s="6"/>
       <c r="AW50" s="6"/>
@@ -18040,7 +18259,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78">
+    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -18089,7 +18308,7 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
@@ -18123,422 +18342,422 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9" t="s">
+    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="9"/>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="9"/>
-      <c r="AP52" s="9"/>
-      <c r="AQ52" s="9"/>
-      <c r="AR52" s="9"/>
-      <c r="AS52" s="9"/>
-      <c r="AT52" s="9"/>
-      <c r="AU52" s="9" t="s">
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="6"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="6"/>
+      <c r="BL52" s="6"/>
+      <c r="BM52" s="6"/>
+      <c r="BN52" s="6"/>
+      <c r="BO52" s="6"/>
+      <c r="BP52" s="6"/>
+      <c r="BQ52" s="6"/>
+      <c r="BR52" s="6"/>
+      <c r="BS52" s="6"/>
+      <c r="BT52" s="6"/>
+      <c r="BU52" s="6"/>
+      <c r="BV52" s="6"/>
+      <c r="BW52" s="6"/>
+      <c r="BX52" s="6"/>
+      <c r="BY52" s="6"/>
+      <c r="BZ52" s="7"/>
+    </row>
+    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
+      <c r="BL53" s="6"/>
+      <c r="BM53" s="6"/>
+      <c r="BN53" s="6"/>
+      <c r="BO53" s="6"/>
+      <c r="BP53" s="6"/>
+      <c r="BQ53" s="6"/>
+      <c r="BR53" s="6"/>
+      <c r="BS53" s="6"/>
+      <c r="BT53" s="6"/>
+      <c r="BU53" s="6"/>
+      <c r="BV53" s="6"/>
+      <c r="BW53" s="6"/>
+      <c r="BX53" s="6"/>
+      <c r="BY53" s="6"/>
+      <c r="BZ53" s="7"/>
+    </row>
+    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9"/>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="9"/>
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV54" s="9"/>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="9"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+      <c r="BE54" s="9"/>
+      <c r="BF54" s="9"/>
+      <c r="BG54" s="9"/>
+      <c r="BH54" s="9"/>
+      <c r="BI54" s="9"/>
+      <c r="BJ54" s="9"/>
+      <c r="BK54" s="9"/>
+      <c r="BL54" s="9"/>
+      <c r="BM54" s="9"/>
+      <c r="BN54" s="9"/>
+      <c r="BO54" s="9"/>
+      <c r="BP54" s="9"/>
+      <c r="BQ54" s="9"/>
+      <c r="BR54" s="9"/>
+      <c r="BS54" s="9"/>
+      <c r="BT54" s="9"/>
+      <c r="BU54" s="9"/>
+      <c r="BV54" s="9"/>
+      <c r="BW54" s="9"/>
+      <c r="BX54" s="9"/>
+      <c r="BY54" s="9"/>
+      <c r="BZ54" s="10"/>
+    </row>
+    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="17"/>
+      <c r="AQ57" s="17"/>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
+      <c r="AT57" s="17"/>
+      <c r="AU57" s="17"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="17"/>
+      <c r="AY57" s="17"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="17"/>
+      <c r="BB57" s="17"/>
+      <c r="BC57" s="17"/>
+      <c r="BD57" s="17"/>
+      <c r="BE57" s="17"/>
+      <c r="BF57" s="17"/>
+      <c r="BG57" s="17"/>
+      <c r="BH57" s="17"/>
+      <c r="BI57" s="17"/>
+      <c r="BJ57" s="17"/>
+      <c r="BK57" s="17"/>
+      <c r="BL57" s="17"/>
+      <c r="BM57" s="17"/>
+      <c r="BN57" s="17"/>
+      <c r="BO57" s="17"/>
+      <c r="BP57" s="17"/>
+      <c r="BQ57" s="17"/>
+      <c r="BR57" s="17"/>
+      <c r="BS57" s="17"/>
+      <c r="BT57" s="17"/>
+      <c r="BU57" s="17"/>
+      <c r="BV57" s="17"/>
+      <c r="BW57" s="17"/>
+      <c r="BX57" s="17"/>
+      <c r="BY57" s="17"/>
+      <c r="BZ57" s="17"/>
+    </row>
+    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AV52" s="9"/>
-      <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
-      <c r="BC52" s="9"/>
-      <c r="BD52" s="9"/>
-      <c r="BE52" s="9"/>
-      <c r="BF52" s="9"/>
-      <c r="BG52" s="9"/>
-      <c r="BH52" s="9"/>
-      <c r="BI52" s="9"/>
-      <c r="BJ52" s="9"/>
-      <c r="BK52" s="9"/>
-      <c r="BL52" s="9"/>
-      <c r="BM52" s="9"/>
-      <c r="BN52" s="9"/>
-      <c r="BO52" s="9"/>
-      <c r="BP52" s="9"/>
-      <c r="BQ52" s="9"/>
-      <c r="BR52" s="9"/>
-      <c r="BS52" s="9"/>
-      <c r="BT52" s="9"/>
-      <c r="BU52" s="9"/>
-      <c r="BV52" s="9"/>
-      <c r="BW52" s="9"/>
-      <c r="BX52" s="9"/>
-      <c r="BY52" s="9"/>
-      <c r="BZ52" s="10"/>
-    </row>
-    <row r="55" spans="2:78">
-      <c r="B55" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="17"/>
-      <c r="AJ55" s="17"/>
-      <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
-      <c r="AN55" s="17"/>
-      <c r="AO55" s="17"/>
-      <c r="AP55" s="17"/>
-      <c r="AQ55" s="17"/>
-      <c r="AR55" s="17"/>
-      <c r="AS55" s="17"/>
-      <c r="AT55" s="17"/>
-      <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
-      <c r="AW55" s="17"/>
-      <c r="AX55" s="17"/>
-      <c r="AY55" s="17"/>
-      <c r="AZ55" s="17"/>
-      <c r="BA55" s="17"/>
-      <c r="BB55" s="17"/>
-      <c r="BC55" s="17"/>
-      <c r="BD55" s="17"/>
-      <c r="BE55" s="17"/>
-      <c r="BF55" s="17"/>
-      <c r="BG55" s="17"/>
-      <c r="BH55" s="17"/>
-      <c r="BI55" s="17"/>
-      <c r="BJ55" s="17"/>
-      <c r="BK55" s="17"/>
-      <c r="BL55" s="17"/>
-      <c r="BM55" s="17"/>
-      <c r="BN55" s="17"/>
-      <c r="BO55" s="17"/>
-      <c r="BP55" s="17"/>
-      <c r="BQ55" s="17"/>
-      <c r="BR55" s="17"/>
-      <c r="BS55" s="17"/>
-      <c r="BT55" s="17"/>
-      <c r="BU55" s="17"/>
-      <c r="BV55" s="17"/>
-      <c r="BW55" s="17"/>
-      <c r="BX55" s="17"/>
-      <c r="BY55" s="17"/>
-      <c r="BZ55" s="17"/>
-    </row>
-    <row r="56" spans="2:78">
-      <c r="B56" s="2" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="3"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
+      <c r="BJ58" s="3"/>
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="3"/>
+      <c r="BM58" s="3"/>
+      <c r="BN58" s="3"/>
+      <c r="BO58" s="3"/>
+      <c r="BP58" s="3"/>
+      <c r="BQ58" s="3"/>
+      <c r="BR58" s="3"/>
+      <c r="BS58" s="3"/>
+      <c r="BT58" s="3"/>
+      <c r="BU58" s="3"/>
+      <c r="BV58" s="3"/>
+      <c r="BW58" s="3"/>
+      <c r="BX58" s="3"/>
+      <c r="BY58" s="3"/>
+      <c r="BZ58" s="4"/>
+    </row>
+    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
-      <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
-      <c r="AU56" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV56" s="3"/>
-      <c r="AW56" s="3"/>
-      <c r="AX56" s="3"/>
-      <c r="AY56" s="3"/>
-      <c r="AZ56" s="3"/>
-      <c r="BA56" s="3"/>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="3"/>
-      <c r="BD56" s="3"/>
-      <c r="BE56" s="3"/>
-      <c r="BF56" s="3"/>
-      <c r="BG56" s="3"/>
-      <c r="BH56" s="3"/>
-      <c r="BI56" s="3"/>
-      <c r="BJ56" s="3"/>
-      <c r="BK56" s="3"/>
-      <c r="BL56" s="3"/>
-      <c r="BM56" s="3"/>
-      <c r="BN56" s="3"/>
-      <c r="BO56" s="3"/>
-      <c r="BP56" s="3"/>
-      <c r="BQ56" s="3"/>
-      <c r="BR56" s="3"/>
-      <c r="BS56" s="3"/>
-      <c r="BT56" s="3"/>
-      <c r="BU56" s="3"/>
-      <c r="BV56" s="3"/>
-      <c r="BW56" s="3"/>
-      <c r="BX56" s="3"/>
-      <c r="BY56" s="3"/>
-      <c r="BZ56" s="4"/>
-    </row>
-    <row r="57" spans="2:78">
-      <c r="B57" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="6"/>
-      <c r="AH57" s="6"/>
-      <c r="AI57" s="6"/>
-      <c r="AJ57" s="6"/>
-      <c r="AK57" s="6"/>
-      <c r="AL57" s="6"/>
-      <c r="AM57" s="6"/>
-      <c r="AN57" s="6"/>
-      <c r="AO57" s="6"/>
-      <c r="AP57" s="6"/>
-      <c r="AQ57" s="6"/>
-      <c r="AR57" s="6"/>
-      <c r="AS57" s="6"/>
-      <c r="AT57" s="6"/>
-      <c r="AU57" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV57" s="6"/>
-      <c r="AW57" s="6"/>
-      <c r="AX57" s="6"/>
-      <c r="AY57" s="6"/>
-      <c r="AZ57" s="6"/>
-      <c r="BA57" s="6"/>
-      <c r="BB57" s="6"/>
-      <c r="BC57" s="6"/>
-      <c r="BD57" s="6"/>
-      <c r="BE57" s="6"/>
-      <c r="BF57" s="6"/>
-      <c r="BG57" s="6"/>
-      <c r="BH57" s="6"/>
-      <c r="BI57" s="6"/>
-      <c r="BJ57" s="6"/>
-      <c r="BK57" s="6"/>
-      <c r="BL57" s="6"/>
-      <c r="BM57" s="6"/>
-      <c r="BN57" s="6"/>
-      <c r="BO57" s="6"/>
-      <c r="BP57" s="6"/>
-      <c r="BQ57" s="6"/>
-      <c r="BR57" s="6"/>
-      <c r="BS57" s="6"/>
-      <c r="BT57" s="6"/>
-      <c r="BU57" s="6"/>
-      <c r="BV57" s="6"/>
-      <c r="BW57" s="6"/>
-      <c r="BX57" s="6"/>
-      <c r="BY57" s="6"/>
-      <c r="BZ57" s="7"/>
-    </row>
-    <row r="58" spans="2:78">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="6"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="6"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="6"/>
-      <c r="AU58" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
-      <c r="BL58" s="6"/>
-      <c r="BM58" s="6"/>
-      <c r="BN58" s="6"/>
-      <c r="BO58" s="6"/>
-      <c r="BP58" s="6"/>
-      <c r="BQ58" s="6"/>
-      <c r="BR58" s="6"/>
-      <c r="BS58" s="6"/>
-      <c r="BT58" s="6"/>
-      <c r="BU58" s="6"/>
-      <c r="BV58" s="6"/>
-      <c r="BW58" s="6"/>
-      <c r="BX58" s="6"/>
-      <c r="BY58" s="6"/>
-      <c r="BZ58" s="7"/>
-    </row>
-    <row r="59" spans="2:78">
-      <c r="B59" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -18585,7 +18804,7 @@
       <c r="AS59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
@@ -18619,10 +18838,10 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78">
+    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -18668,7 +18887,7 @@
       <c r="AS60" s="6"/>
       <c r="AT60" s="6"/>
       <c r="AU60" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AV60" s="6"/>
       <c r="AW60" s="6"/>
@@ -18702,12 +18921,12 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78">
-      <c r="B61" s="5"/>
+    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -18751,7 +18970,7 @@
       <c r="AS61" s="6"/>
       <c r="AT61" s="6"/>
       <c r="AU61" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AV61" s="6"/>
       <c r="AW61" s="6"/>
@@ -18785,13 +19004,13 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78">
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -18834,7 +19053,7 @@
       <c r="AS62" s="6"/>
       <c r="AT62" s="6"/>
       <c r="AU62" s="6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AV62" s="6"/>
       <c r="AW62" s="6"/>
@@ -18868,14 +19087,14 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78">
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -18917,7 +19136,7 @@
       <c r="AS63" s="6"/>
       <c r="AT63" s="6"/>
       <c r="AU63" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
@@ -18951,15 +19170,15 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78">
+    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -19000,7 +19219,7 @@
       <c r="AS64" s="6"/>
       <c r="AT64" s="6"/>
       <c r="AU64" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV64" s="6"/>
       <c r="AW64" s="6"/>
@@ -19034,16 +19253,16 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78">
+    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -19083,7 +19302,7 @@
       <c r="AS65" s="6"/>
       <c r="AT65" s="6"/>
       <c r="AU65" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV65" s="6"/>
       <c r="AW65" s="6"/>
@@ -19117,12 +19336,14 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78">
+    <row r="66" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -19163,7 +19384,9 @@
       <c r="AR66" s="6"/>
       <c r="AS66" s="6"/>
       <c r="AT66" s="6"/>
-      <c r="AU66" s="6"/>
+      <c r="AU66" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6"/>
@@ -19196,15 +19419,15 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78">
-      <c r="B67" s="5" t="s">
-        <v>209</v>
-      </c>
+    <row r="67" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -19244,7 +19467,9 @@
       <c r="AR67" s="6"/>
       <c r="AS67" s="6"/>
       <c r="AT67" s="6"/>
-      <c r="AU67" s="6"/>
+      <c r="AU67" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="AV67" s="6"/>
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
@@ -19277,16 +19502,16 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78">
-      <c r="B68" s="5" t="s">
-        <v>210</v>
-      </c>
+    <row r="68" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -19325,7 +19550,9 @@
       <c r="AR68" s="6"/>
       <c r="AS68" s="6"/>
       <c r="AT68" s="6"/>
-      <c r="AU68" s="6"/>
+      <c r="AU68" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV68" s="6"/>
       <c r="AW68" s="6"/>
       <c r="AX68" s="6"/>
@@ -19358,16 +19585,16 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78">
-      <c r="B69" s="5" t="s">
-        <v>211</v>
-      </c>
+    <row r="69" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -19406,7 +19633,9 @@
       <c r="AR69" s="6"/>
       <c r="AS69" s="6"/>
       <c r="AT69" s="6"/>
-      <c r="AU69" s="6"/>
+      <c r="AU69" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV69" s="6"/>
       <c r="AW69" s="6"/>
       <c r="AX69" s="6"/>
@@ -19439,16 +19668,16 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78">
-      <c r="B70" s="5" t="s">
-        <v>212</v>
-      </c>
+    <row r="70" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -19487,7 +19716,9 @@
       <c r="AR70" s="6"/>
       <c r="AS70" s="6"/>
       <c r="AT70" s="6"/>
-      <c r="AU70" s="6"/>
+      <c r="AU70" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="AV70" s="6"/>
       <c r="AW70" s="6"/>
       <c r="AX70" s="6"/>
@@ -19520,17 +19751,17 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78">
-      <c r="B71" s="5" t="s">
-        <v>213</v>
-      </c>
+    <row r="71" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -19568,7 +19799,9 @@
       <c r="AR71" s="6"/>
       <c r="AS71" s="6"/>
       <c r="AT71" s="6"/>
-      <c r="AU71" s="6"/>
+      <c r="AU71" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV71" s="6"/>
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
@@ -19601,17 +19834,17 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78">
-      <c r="B72" s="5" t="s">
-        <v>214</v>
-      </c>
+    <row r="72" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -19649,7 +19882,9 @@
       <c r="AR72" s="6"/>
       <c r="AS72" s="6"/>
       <c r="AT72" s="6"/>
-      <c r="AU72" s="6"/>
+      <c r="AU72" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV72" s="6"/>
       <c r="AW72" s="6"/>
       <c r="AX72" s="6"/>
@@ -19682,17 +19917,17 @@
       <c r="BY72" s="6"/>
       <c r="BZ72" s="7"/>
     </row>
-    <row r="73" spans="2:78">
-      <c r="B73" s="5" t="s">
-        <v>215</v>
-      </c>
+    <row r="73" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -19730,7 +19965,9 @@
       <c r="AR73" s="6"/>
       <c r="AS73" s="6"/>
       <c r="AT73" s="6"/>
-      <c r="AU73" s="6"/>
+      <c r="AU73" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV73" s="6"/>
       <c r="AW73" s="6"/>
       <c r="AX73" s="6"/>
@@ -19763,17 +20000,17 @@
       <c r="BY73" s="6"/>
       <c r="BZ73" s="7"/>
     </row>
-    <row r="74" spans="2:78">
-      <c r="B74" s="5" t="s">
-        <v>216</v>
-      </c>
+    <row r="74" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -19811,7 +20048,9 @@
       <c r="AR74" s="6"/>
       <c r="AS74" s="6"/>
       <c r="AT74" s="6"/>
-      <c r="AU74" s="6"/>
+      <c r="AU74" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV74" s="6"/>
       <c r="AW74" s="6"/>
       <c r="AX74" s="6"/>
@@ -19844,9 +20083,9 @@
       <c r="BY74" s="6"/>
       <c r="BZ74" s="7"/>
     </row>
-    <row r="75" spans="2:78">
-      <c r="B75" s="5" t="s">
-        <v>217</v>
+    <row r="75" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B75" s="35" t="s">
+        <v>247</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -19925,9 +20164,9 @@
       <c r="BY75" s="6"/>
       <c r="BZ75" s="7"/>
     </row>
-    <row r="76" spans="2:78">
+    <row r="76" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -19973,7 +20212,9 @@
       <c r="AR76" s="6"/>
       <c r="AS76" s="6"/>
       <c r="AT76" s="6"/>
-      <c r="AU76" s="6"/>
+      <c r="AU76" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV76" s="6"/>
       <c r="AW76" s="6"/>
       <c r="AX76" s="6"/>
@@ -20006,11 +20247,11 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78">
-      <c r="B77" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="6"/>
+    <row r="77" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -20054,7 +20295,9 @@
       <c r="AR77" s="6"/>
       <c r="AS77" s="6"/>
       <c r="AT77" s="6"/>
-      <c r="AU77" s="6"/>
+      <c r="AU77" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AV77" s="6"/>
       <c r="AW77" s="6"/>
       <c r="AX77" s="6"/>
@@ -20087,9 +20330,11 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78">
+    <row r="78" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -20166,10 +20411,8 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78">
-      <c r="B79" s="5" t="s">
-        <v>219</v>
-      </c>
+    <row r="79" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -20247,10 +20490,8 @@
       <c r="BY79" s="6"/>
       <c r="BZ79" s="7"/>
     </row>
-    <row r="80" spans="2:78">
-      <c r="B80" s="5" t="s">
-        <v>220</v>
-      </c>
+    <row r="80" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -20328,10 +20569,8 @@
       <c r="BY80" s="6"/>
       <c r="BZ80" s="7"/>
     </row>
-    <row r="81" spans="2:78">
-      <c r="B81" s="5" t="s">
-        <v>221</v>
-      </c>
+    <row r="81" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -20409,9 +20648,9 @@
       <c r="BY81" s="6"/>
       <c r="BZ81" s="7"/>
     </row>
-    <row r="82" spans="2:78">
+    <row r="82" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -20490,86 +20729,1299 @@
       <c r="BY82" s="6"/>
       <c r="BZ82" s="7"/>
     </row>
-    <row r="83" spans="2:78">
-      <c r="B83" s="8" t="s">
+    <row r="83" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="6"/>
+      <c r="BU83" s="6"/>
+      <c r="BV83" s="6"/>
+      <c r="BW83" s="6"/>
+      <c r="BX83" s="6"/>
+      <c r="BY83" s="6"/>
+      <c r="BZ83" s="7"/>
+    </row>
+    <row r="84" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="6"/>
+      <c r="AQ84" s="6"/>
+      <c r="AR84" s="6"/>
+      <c r="AS84" s="6"/>
+      <c r="AT84" s="6"/>
+      <c r="AU84" s="6"/>
+      <c r="AV84" s="6"/>
+      <c r="AW84" s="6"/>
+      <c r="AX84" s="6"/>
+      <c r="AY84" s="6"/>
+      <c r="AZ84" s="6"/>
+      <c r="BA84" s="6"/>
+      <c r="BB84" s="6"/>
+      <c r="BC84" s="6"/>
+      <c r="BD84" s="6"/>
+      <c r="BE84" s="6"/>
+      <c r="BF84" s="6"/>
+      <c r="BG84" s="6"/>
+      <c r="BH84" s="6"/>
+      <c r="BI84" s="6"/>
+      <c r="BJ84" s="6"/>
+      <c r="BK84" s="6"/>
+      <c r="BL84" s="6"/>
+      <c r="BM84" s="6"/>
+      <c r="BN84" s="6"/>
+      <c r="BO84" s="6"/>
+      <c r="BP84" s="6"/>
+      <c r="BQ84" s="6"/>
+      <c r="BR84" s="6"/>
+      <c r="BS84" s="6"/>
+      <c r="BT84" s="6"/>
+      <c r="BU84" s="6"/>
+      <c r="BV84" s="6"/>
+      <c r="BW84" s="6"/>
+      <c r="BX84" s="6"/>
+      <c r="BY84" s="6"/>
+      <c r="BZ84" s="7"/>
+    </row>
+    <row r="85" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="6"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="6"/>
+      <c r="AR85" s="6"/>
+      <c r="AS85" s="6"/>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="6"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="6"/>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="6"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="6"/>
+      <c r="BB85" s="6"/>
+      <c r="BC85" s="6"/>
+      <c r="BD85" s="6"/>
+      <c r="BE85" s="6"/>
+      <c r="BF85" s="6"/>
+      <c r="BG85" s="6"/>
+      <c r="BH85" s="6"/>
+      <c r="BI85" s="6"/>
+      <c r="BJ85" s="6"/>
+      <c r="BK85" s="6"/>
+      <c r="BL85" s="6"/>
+      <c r="BM85" s="6"/>
+      <c r="BN85" s="6"/>
+      <c r="BO85" s="6"/>
+      <c r="BP85" s="6"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="6"/>
+      <c r="BT85" s="6"/>
+      <c r="BU85" s="6"/>
+      <c r="BV85" s="6"/>
+      <c r="BW85" s="6"/>
+      <c r="BX85" s="6"/>
+      <c r="BY85" s="6"/>
+      <c r="BZ85" s="7"/>
+    </row>
+    <row r="86" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="6"/>
+      <c r="AQ86" s="6"/>
+      <c r="AR86" s="6"/>
+      <c r="AS86" s="6"/>
+      <c r="AT86" s="6"/>
+      <c r="AU86" s="6"/>
+      <c r="AV86" s="6"/>
+      <c r="AW86" s="6"/>
+      <c r="AX86" s="6"/>
+      <c r="AY86" s="6"/>
+      <c r="AZ86" s="6"/>
+      <c r="BA86" s="6"/>
+      <c r="BB86" s="6"/>
+      <c r="BC86" s="6"/>
+      <c r="BD86" s="6"/>
+      <c r="BE86" s="6"/>
+      <c r="BF86" s="6"/>
+      <c r="BG86" s="6"/>
+      <c r="BH86" s="6"/>
+      <c r="BI86" s="6"/>
+      <c r="BJ86" s="6"/>
+      <c r="BK86" s="6"/>
+      <c r="BL86" s="6"/>
+      <c r="BM86" s="6"/>
+      <c r="BN86" s="6"/>
+      <c r="BO86" s="6"/>
+      <c r="BP86" s="6"/>
+      <c r="BQ86" s="6"/>
+      <c r="BR86" s="6"/>
+      <c r="BS86" s="6"/>
+      <c r="BT86" s="6"/>
+      <c r="BU86" s="6"/>
+      <c r="BV86" s="6"/>
+      <c r="BW86" s="6"/>
+      <c r="BX86" s="6"/>
+      <c r="BY86" s="6"/>
+      <c r="BZ86" s="7"/>
+    </row>
+    <row r="87" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="6"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
+      <c r="BD87" s="6"/>
+      <c r="BE87" s="6"/>
+      <c r="BF87" s="6"/>
+      <c r="BG87" s="6"/>
+      <c r="BH87" s="6"/>
+      <c r="BI87" s="6"/>
+      <c r="BJ87" s="6"/>
+      <c r="BK87" s="6"/>
+      <c r="BL87" s="6"/>
+      <c r="BM87" s="6"/>
+      <c r="BN87" s="6"/>
+      <c r="BO87" s="6"/>
+      <c r="BP87" s="6"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="6"/>
+      <c r="BT87" s="6"/>
+      <c r="BU87" s="6"/>
+      <c r="BV87" s="6"/>
+      <c r="BW87" s="6"/>
+      <c r="BX87" s="6"/>
+      <c r="BY87" s="6"/>
+      <c r="BZ87" s="7"/>
+    </row>
+    <row r="88" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AQ88" s="6"/>
+      <c r="AR88" s="6"/>
+      <c r="AS88" s="6"/>
+      <c r="AT88" s="6"/>
+      <c r="AU88" s="6"/>
+      <c r="AV88" s="6"/>
+      <c r="AW88" s="6"/>
+      <c r="AX88" s="6"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="6"/>
+      <c r="BA88" s="6"/>
+      <c r="BB88" s="6"/>
+      <c r="BC88" s="6"/>
+      <c r="BD88" s="6"/>
+      <c r="BE88" s="6"/>
+      <c r="BF88" s="6"/>
+      <c r="BG88" s="6"/>
+      <c r="BH88" s="6"/>
+      <c r="BI88" s="6"/>
+      <c r="BJ88" s="6"/>
+      <c r="BK88" s="6"/>
+      <c r="BL88" s="6"/>
+      <c r="BM88" s="6"/>
+      <c r="BN88" s="6"/>
+      <c r="BO88" s="6"/>
+      <c r="BP88" s="6"/>
+      <c r="BQ88" s="6"/>
+      <c r="BR88" s="6"/>
+      <c r="BS88" s="6"/>
+      <c r="BT88" s="6"/>
+      <c r="BU88" s="6"/>
+      <c r="BV88" s="6"/>
+      <c r="BW88" s="6"/>
+      <c r="BX88" s="6"/>
+      <c r="BY88" s="6"/>
+      <c r="BZ88" s="7"/>
+    </row>
+    <row r="89" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="6"/>
+      <c r="AM89" s="6"/>
+      <c r="AN89" s="6"/>
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="6"/>
+      <c r="AQ89" s="6"/>
+      <c r="AR89" s="6"/>
+      <c r="AS89" s="6"/>
+      <c r="AT89" s="6"/>
+      <c r="AU89" s="6"/>
+      <c r="AV89" s="6"/>
+      <c r="AW89" s="6"/>
+      <c r="AX89" s="6"/>
+      <c r="AY89" s="6"/>
+      <c r="AZ89" s="6"/>
+      <c r="BA89" s="6"/>
+      <c r="BB89" s="6"/>
+      <c r="BC89" s="6"/>
+      <c r="BD89" s="6"/>
+      <c r="BE89" s="6"/>
+      <c r="BF89" s="6"/>
+      <c r="BG89" s="6"/>
+      <c r="BH89" s="6"/>
+      <c r="BI89" s="6"/>
+      <c r="BJ89" s="6"/>
+      <c r="BK89" s="6"/>
+      <c r="BL89" s="6"/>
+      <c r="BM89" s="6"/>
+      <c r="BN89" s="6"/>
+      <c r="BO89" s="6"/>
+      <c r="BP89" s="6"/>
+      <c r="BQ89" s="6"/>
+      <c r="BR89" s="6"/>
+      <c r="BS89" s="6"/>
+      <c r="BT89" s="6"/>
+      <c r="BU89" s="6"/>
+      <c r="BV89" s="6"/>
+      <c r="BW89" s="6"/>
+      <c r="BX89" s="6"/>
+      <c r="BY89" s="6"/>
+      <c r="BZ89" s="7"/>
+    </row>
+    <row r="90" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="6"/>
+      <c r="AQ90" s="6"/>
+      <c r="AR90" s="6"/>
+      <c r="AS90" s="6"/>
+      <c r="AT90" s="6"/>
+      <c r="AU90" s="6"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="6"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+      <c r="BA90" s="6"/>
+      <c r="BB90" s="6"/>
+      <c r="BC90" s="6"/>
+      <c r="BD90" s="6"/>
+      <c r="BE90" s="6"/>
+      <c r="BF90" s="6"/>
+      <c r="BG90" s="6"/>
+      <c r="BH90" s="6"/>
+      <c r="BI90" s="6"/>
+      <c r="BJ90" s="6"/>
+      <c r="BK90" s="6"/>
+      <c r="BL90" s="6"/>
+      <c r="BM90" s="6"/>
+      <c r="BN90" s="6"/>
+      <c r="BO90" s="6"/>
+      <c r="BP90" s="6"/>
+      <c r="BQ90" s="6"/>
+      <c r="BR90" s="6"/>
+      <c r="BS90" s="6"/>
+      <c r="BT90" s="6"/>
+      <c r="BU90" s="6"/>
+      <c r="BV90" s="6"/>
+      <c r="BW90" s="6"/>
+      <c r="BX90" s="6"/>
+      <c r="BY90" s="6"/>
+      <c r="BZ90" s="7"/>
+    </row>
+    <row r="91" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+      <c r="AN91" s="6"/>
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="6"/>
+      <c r="AQ91" s="6"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="6"/>
+      <c r="AT91" s="6"/>
+      <c r="AU91" s="6"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="6"/>
+      <c r="AX91" s="6"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="6"/>
+      <c r="BB91" s="6"/>
+      <c r="BC91" s="6"/>
+      <c r="BD91" s="6"/>
+      <c r="BE91" s="6"/>
+      <c r="BF91" s="6"/>
+      <c r="BG91" s="6"/>
+      <c r="BH91" s="6"/>
+      <c r="BI91" s="6"/>
+      <c r="BJ91" s="6"/>
+      <c r="BK91" s="6"/>
+      <c r="BL91" s="6"/>
+      <c r="BM91" s="6"/>
+      <c r="BN91" s="6"/>
+      <c r="BO91" s="6"/>
+      <c r="BP91" s="6"/>
+      <c r="BQ91" s="6"/>
+      <c r="BR91" s="6"/>
+      <c r="BS91" s="6"/>
+      <c r="BT91" s="6"/>
+      <c r="BU91" s="6"/>
+      <c r="BV91" s="6"/>
+      <c r="BW91" s="6"/>
+      <c r="BX91" s="6"/>
+      <c r="BY91" s="6"/>
+      <c r="BZ91" s="7"/>
+    </row>
+    <row r="92" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
-      <c r="AB83" s="9"/>
-      <c r="AC83" s="9"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-      <c r="AF83" s="9"/>
-      <c r="AG83" s="9"/>
-      <c r="AH83" s="9"/>
-      <c r="AI83" s="9"/>
-      <c r="AJ83" s="9"/>
-      <c r="AK83" s="9"/>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="9"/>
-      <c r="AN83" s="9"/>
-      <c r="AO83" s="9"/>
-      <c r="AP83" s="9"/>
-      <c r="AQ83" s="9"/>
-      <c r="AR83" s="9"/>
-      <c r="AS83" s="9"/>
-      <c r="AT83" s="9"/>
-      <c r="AU83" s="9"/>
-      <c r="AV83" s="9"/>
-      <c r="AW83" s="9"/>
-      <c r="AX83" s="9"/>
-      <c r="AY83" s="9"/>
-      <c r="AZ83" s="9"/>
-      <c r="BA83" s="9"/>
-      <c r="BB83" s="9"/>
-      <c r="BC83" s="9"/>
-      <c r="BD83" s="9"/>
-      <c r="BE83" s="9"/>
-      <c r="BF83" s="9"/>
-      <c r="BG83" s="9"/>
-      <c r="BH83" s="9"/>
-      <c r="BI83" s="9"/>
-      <c r="BJ83" s="9"/>
-      <c r="BK83" s="9"/>
-      <c r="BL83" s="9"/>
-      <c r="BM83" s="9"/>
-      <c r="BN83" s="9"/>
-      <c r="BO83" s="9"/>
-      <c r="BP83" s="9"/>
-      <c r="BQ83" s="9"/>
-      <c r="BR83" s="9"/>
-      <c r="BS83" s="9"/>
-      <c r="BT83" s="9"/>
-      <c r="BU83" s="9"/>
-      <c r="BV83" s="9"/>
-      <c r="BW83" s="9"/>
-      <c r="BX83" s="9"/>
-      <c r="BY83" s="9"/>
-      <c r="BZ83" s="10"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AI92" s="6"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6"/>
+      <c r="AN92" s="6"/>
+      <c r="AO92" s="6"/>
+      <c r="AP92" s="6"/>
+      <c r="AQ92" s="6"/>
+      <c r="AR92" s="6"/>
+      <c r="AS92" s="6"/>
+      <c r="AT92" s="6"/>
+      <c r="AU92" s="6"/>
+      <c r="AV92" s="6"/>
+      <c r="AW92" s="6"/>
+      <c r="AX92" s="6"/>
+      <c r="AY92" s="6"/>
+      <c r="AZ92" s="6"/>
+      <c r="BA92" s="6"/>
+      <c r="BB92" s="6"/>
+      <c r="BC92" s="6"/>
+      <c r="BD92" s="6"/>
+      <c r="BE92" s="6"/>
+      <c r="BF92" s="6"/>
+      <c r="BG92" s="6"/>
+      <c r="BH92" s="6"/>
+      <c r="BI92" s="6"/>
+      <c r="BJ92" s="6"/>
+      <c r="BK92" s="6"/>
+      <c r="BL92" s="6"/>
+      <c r="BM92" s="6"/>
+      <c r="BN92" s="6"/>
+      <c r="BO92" s="6"/>
+      <c r="BP92" s="6"/>
+      <c r="BQ92" s="6"/>
+      <c r="BR92" s="6"/>
+      <c r="BS92" s="6"/>
+      <c r="BT92" s="6"/>
+      <c r="BU92" s="6"/>
+      <c r="BV92" s="6"/>
+      <c r="BW92" s="6"/>
+      <c r="BX92" s="6"/>
+      <c r="BY92" s="6"/>
+      <c r="BZ92" s="7"/>
+    </row>
+    <row r="93" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6"/>
+      <c r="AN93" s="6"/>
+      <c r="AO93" s="6"/>
+      <c r="AP93" s="6"/>
+      <c r="AQ93" s="6"/>
+      <c r="AR93" s="6"/>
+      <c r="AS93" s="6"/>
+      <c r="AT93" s="6"/>
+      <c r="AU93" s="6"/>
+      <c r="AV93" s="6"/>
+      <c r="AW93" s="6"/>
+      <c r="AX93" s="6"/>
+      <c r="AY93" s="6"/>
+      <c r="AZ93" s="6"/>
+      <c r="BA93" s="6"/>
+      <c r="BB93" s="6"/>
+      <c r="BC93" s="6"/>
+      <c r="BD93" s="6"/>
+      <c r="BE93" s="6"/>
+      <c r="BF93" s="6"/>
+      <c r="BG93" s="6"/>
+      <c r="BH93" s="6"/>
+      <c r="BI93" s="6"/>
+      <c r="BJ93" s="6"/>
+      <c r="BK93" s="6"/>
+      <c r="BL93" s="6"/>
+      <c r="BM93" s="6"/>
+      <c r="BN93" s="6"/>
+      <c r="BO93" s="6"/>
+      <c r="BP93" s="6"/>
+      <c r="BQ93" s="6"/>
+      <c r="BR93" s="6"/>
+      <c r="BS93" s="6"/>
+      <c r="BT93" s="6"/>
+      <c r="BU93" s="6"/>
+      <c r="BV93" s="6"/>
+      <c r="BW93" s="6"/>
+      <c r="BX93" s="6"/>
+      <c r="BY93" s="6"/>
+      <c r="BZ93" s="7"/>
+    </row>
+    <row r="94" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6"/>
+      <c r="AN94" s="6"/>
+      <c r="AO94" s="6"/>
+      <c r="AP94" s="6"/>
+      <c r="AQ94" s="6"/>
+      <c r="AR94" s="6"/>
+      <c r="AS94" s="6"/>
+      <c r="AT94" s="6"/>
+      <c r="AU94" s="6"/>
+      <c r="AV94" s="6"/>
+      <c r="AW94" s="6"/>
+      <c r="AX94" s="6"/>
+      <c r="AY94" s="6"/>
+      <c r="AZ94" s="6"/>
+      <c r="BA94" s="6"/>
+      <c r="BB94" s="6"/>
+      <c r="BC94" s="6"/>
+      <c r="BD94" s="6"/>
+      <c r="BE94" s="6"/>
+      <c r="BF94" s="6"/>
+      <c r="BG94" s="6"/>
+      <c r="BH94" s="6"/>
+      <c r="BI94" s="6"/>
+      <c r="BJ94" s="6"/>
+      <c r="BK94" s="6"/>
+      <c r="BL94" s="6"/>
+      <c r="BM94" s="6"/>
+      <c r="BN94" s="6"/>
+      <c r="BO94" s="6"/>
+      <c r="BP94" s="6"/>
+      <c r="BQ94" s="6"/>
+      <c r="BR94" s="6"/>
+      <c r="BS94" s="6"/>
+      <c r="BT94" s="6"/>
+      <c r="BU94" s="6"/>
+      <c r="BV94" s="6"/>
+      <c r="BW94" s="6"/>
+      <c r="BX94" s="6"/>
+      <c r="BY94" s="6"/>
+      <c r="BZ94" s="7"/>
+    </row>
+    <row r="95" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6"/>
+      <c r="AN95" s="6"/>
+      <c r="AO95" s="6"/>
+      <c r="AP95" s="6"/>
+      <c r="AQ95" s="6"/>
+      <c r="AR95" s="6"/>
+      <c r="AS95" s="6"/>
+      <c r="AT95" s="6"/>
+      <c r="AU95" s="6"/>
+      <c r="AV95" s="6"/>
+      <c r="AW95" s="6"/>
+      <c r="AX95" s="6"/>
+      <c r="AY95" s="6"/>
+      <c r="AZ95" s="6"/>
+      <c r="BA95" s="6"/>
+      <c r="BB95" s="6"/>
+      <c r="BC95" s="6"/>
+      <c r="BD95" s="6"/>
+      <c r="BE95" s="6"/>
+      <c r="BF95" s="6"/>
+      <c r="BG95" s="6"/>
+      <c r="BH95" s="6"/>
+      <c r="BI95" s="6"/>
+      <c r="BJ95" s="6"/>
+      <c r="BK95" s="6"/>
+      <c r="BL95" s="6"/>
+      <c r="BM95" s="6"/>
+      <c r="BN95" s="6"/>
+      <c r="BO95" s="6"/>
+      <c r="BP95" s="6"/>
+      <c r="BQ95" s="6"/>
+      <c r="BR95" s="6"/>
+      <c r="BS95" s="6"/>
+      <c r="BT95" s="6"/>
+      <c r="BU95" s="6"/>
+      <c r="BV95" s="6"/>
+      <c r="BW95" s="6"/>
+      <c r="BX95" s="6"/>
+      <c r="BY95" s="6"/>
+      <c r="BZ95" s="7"/>
+    </row>
+    <row r="96" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
+      <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
+      <c r="AF96" s="6"/>
+      <c r="AG96" s="6"/>
+      <c r="AH96" s="6"/>
+      <c r="AI96" s="6"/>
+      <c r="AJ96" s="6"/>
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="6"/>
+      <c r="AM96" s="6"/>
+      <c r="AN96" s="6"/>
+      <c r="AO96" s="6"/>
+      <c r="AP96" s="6"/>
+      <c r="AQ96" s="6"/>
+      <c r="AR96" s="6"/>
+      <c r="AS96" s="6"/>
+      <c r="AT96" s="6"/>
+      <c r="AU96" s="6"/>
+      <c r="AV96" s="6"/>
+      <c r="AW96" s="6"/>
+      <c r="AX96" s="6"/>
+      <c r="AY96" s="6"/>
+      <c r="AZ96" s="6"/>
+      <c r="BA96" s="6"/>
+      <c r="BB96" s="6"/>
+      <c r="BC96" s="6"/>
+      <c r="BD96" s="6"/>
+      <c r="BE96" s="6"/>
+      <c r="BF96" s="6"/>
+      <c r="BG96" s="6"/>
+      <c r="BH96" s="6"/>
+      <c r="BI96" s="6"/>
+      <c r="BJ96" s="6"/>
+      <c r="BK96" s="6"/>
+      <c r="BL96" s="6"/>
+      <c r="BM96" s="6"/>
+      <c r="BN96" s="6"/>
+      <c r="BO96" s="6"/>
+      <c r="BP96" s="6"/>
+      <c r="BQ96" s="6"/>
+      <c r="BR96" s="6"/>
+      <c r="BS96" s="6"/>
+      <c r="BT96" s="6"/>
+      <c r="BU96" s="6"/>
+      <c r="BV96" s="6"/>
+      <c r="BW96" s="6"/>
+      <c r="BX96" s="6"/>
+      <c r="BY96" s="6"/>
+      <c r="BZ96" s="7"/>
+    </row>
+    <row r="97" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6"/>
+      <c r="AN97" s="6"/>
+      <c r="AO97" s="6"/>
+      <c r="AP97" s="6"/>
+      <c r="AQ97" s="6"/>
+      <c r="AR97" s="6"/>
+      <c r="AS97" s="6"/>
+      <c r="AT97" s="6"/>
+      <c r="AU97" s="6"/>
+      <c r="AV97" s="6"/>
+      <c r="AW97" s="6"/>
+      <c r="AX97" s="6"/>
+      <c r="AY97" s="6"/>
+      <c r="AZ97" s="6"/>
+      <c r="BA97" s="6"/>
+      <c r="BB97" s="6"/>
+      <c r="BC97" s="6"/>
+      <c r="BD97" s="6"/>
+      <c r="BE97" s="6"/>
+      <c r="BF97" s="6"/>
+      <c r="BG97" s="6"/>
+      <c r="BH97" s="6"/>
+      <c r="BI97" s="6"/>
+      <c r="BJ97" s="6"/>
+      <c r="BK97" s="6"/>
+      <c r="BL97" s="6"/>
+      <c r="BM97" s="6"/>
+      <c r="BN97" s="6"/>
+      <c r="BO97" s="6"/>
+      <c r="BP97" s="6"/>
+      <c r="BQ97" s="6"/>
+      <c r="BR97" s="6"/>
+      <c r="BS97" s="6"/>
+      <c r="BT97" s="6"/>
+      <c r="BU97" s="6"/>
+      <c r="BV97" s="6"/>
+      <c r="BW97" s="6"/>
+      <c r="BX97" s="6"/>
+      <c r="BY97" s="6"/>
+      <c r="BZ97" s="7"/>
+    </row>
+    <row r="98" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="9"/>
+      <c r="AG98" s="9"/>
+      <c r="AH98" s="9"/>
+      <c r="AI98" s="9"/>
+      <c r="AJ98" s="9"/>
+      <c r="AK98" s="9"/>
+      <c r="AL98" s="9"/>
+      <c r="AM98" s="9"/>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="9"/>
+      <c r="AP98" s="9"/>
+      <c r="AQ98" s="9"/>
+      <c r="AR98" s="9"/>
+      <c r="AS98" s="9"/>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
+      <c r="AV98" s="9"/>
+      <c r="AW98" s="9"/>
+      <c r="AX98" s="9"/>
+      <c r="AY98" s="9"/>
+      <c r="AZ98" s="9"/>
+      <c r="BA98" s="9"/>
+      <c r="BB98" s="9"/>
+      <c r="BC98" s="9"/>
+      <c r="BD98" s="9"/>
+      <c r="BE98" s="9"/>
+      <c r="BF98" s="9"/>
+      <c r="BG98" s="9"/>
+      <c r="BH98" s="9"/>
+      <c r="BI98" s="9"/>
+      <c r="BJ98" s="9"/>
+      <c r="BK98" s="9"/>
+      <c r="BL98" s="9"/>
+      <c r="BM98" s="9"/>
+      <c r="BN98" s="9"/>
+      <c r="BO98" s="9"/>
+      <c r="BP98" s="9"/>
+      <c r="BQ98" s="9"/>
+      <c r="BR98" s="9"/>
+      <c r="BS98" s="9"/>
+      <c r="BT98" s="9"/>
+      <c r="BU98" s="9"/>
+      <c r="BV98" s="9"/>
+      <c r="BW98" s="9"/>
+      <c r="BX98" s="9"/>
+      <c r="BY98" s="9"/>
+      <c r="BZ98" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Linux/DeviceDrivers/Document(important)/11.设备树相关.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/11.设备树相关.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988A6C8-63B9-401D-9E1A-1E9A788D84CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="1290" windowWidth="23250" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="machine_desc" sheetId="2" r:id="rId1"/>
     <sheet name="DeviceTreeBlock" sheetId="4" r:id="rId2"/>
-    <sheet name="解析DT结构体" sheetId="5" r:id="rId3"/>
-    <sheet name="解析设备树过程" sheetId="1" r:id="rId4"/>
+    <sheet name="devicetree_hc" sheetId="5" r:id="rId3"/>
+    <sheet name="devicetree_seq" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="268">
   <si>
     <t>start_kernel()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1646,12 +1645,95 @@
     <t>client-&gt;irq = irq;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>struct of_device_id {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char    name[32];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char    type[32];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const void *data;</t>
+  </si>
+  <si>
+    <t>include/linux/mod_devicetable.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    char    compatible[128];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern const void *of_get_property(const struct device_node *node, const char *name, int *lenp);</t>
+  </si>
+  <si>
+    <t>device_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/of/base.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const void *of_get_property(const struct device_node *np, const char *name, int *lenp)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct property *pp = of_find_property(np, name, lenp);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return pp ? pp-&gt;value : NULL;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,7 +1846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1904,13 +1986,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1957,38 +2076,8 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2008,7 +2097,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,7 +2163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2071,7 +2205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2103,27 +2237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,24 +2271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2348,24 +2446,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:78">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:78">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +2546,7 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:78">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2627,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="7"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:78">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2708,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:78">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2789,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:78">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2772,7 +2870,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:78">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2951,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:78">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +3032,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:78">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3113,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:78">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3194,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:78">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3177,7 +3275,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:78">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3258,7 +3356,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:78">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3339,7 +3437,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:78">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -3420,7 +3518,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:78">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3599,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:78">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3582,7 +3680,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:78">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3663,7 +3761,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:78">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3744,7 +3842,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:78">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3923,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:78">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +4004,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:78">
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
@@ -3987,7 +4085,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:78">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -4068,7 +4166,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:78">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
@@ -4149,7 +4247,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:78">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -4230,7 +4328,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:78">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -4311,7 +4409,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:78">
       <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4490,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:78">
       <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
@@ -4473,7 +4571,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:78">
       <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
@@ -4554,7 +4652,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:78">
       <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
@@ -4635,7 +4733,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:78">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -4716,7 +4814,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:78">
       <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
@@ -4797,7 +4895,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:78">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -4878,7 +4976,7 @@
       <c r="BY34" s="6"/>
       <c r="BZ34" s="7"/>
     </row>
-    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:78">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -4959,7 +5057,7 @@
       <c r="BY35" s="6"/>
       <c r="BZ35" s="7"/>
     </row>
-    <row r="36" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:78">
       <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
@@ -5040,7 +5138,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:78">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -5121,7 +5219,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:78">
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
@@ -5202,7 +5300,7 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="10"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:78">
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
@@ -5285,7 +5383,7 @@
       <c r="BY41" s="3"/>
       <c r="BZ41" s="4"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:78">
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
@@ -5366,7 +5464,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:78">
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
@@ -5447,7 +5545,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:78">
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -5530,7 +5628,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:78">
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
@@ -5611,7 +5709,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:78">
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
@@ -5692,7 +5790,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:78">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -5771,7 +5869,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:78">
       <c r="B48" s="5" t="s">
         <v>51</v>
       </c>
@@ -5852,7 +5950,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:78">
       <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
@@ -5933,7 +6031,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:78">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -6012,7 +6110,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:78">
       <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
@@ -6095,7 +6193,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:78">
       <c r="B52" s="5" t="s">
         <v>68</v>
       </c>
@@ -6178,7 +6276,7 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:78">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -6259,7 +6357,7 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:78">
       <c r="B54" s="5" t="s">
         <v>70</v>
       </c>
@@ -6340,7 +6438,7 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:78">
       <c r="B55" s="8" t="s">
         <v>71</v>
       </c>
@@ -6421,7 +6519,7 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="10"/>
     </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:78">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -6500,7 +6598,7 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="6"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:78">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -6579,7 +6677,7 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="6"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:78">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -6662,7 +6760,7 @@
       <c r="BY58" s="3"/>
       <c r="BZ58" s="4"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:78">
       <c r="B59" s="5" t="s">
         <v>65</v>
       </c>
@@ -6743,7 +6841,7 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:78">
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
@@ -6824,7 +6922,7 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:78">
       <c r="B61" s="5" t="s">
         <v>43</v>
       </c>
@@ -6905,7 +7003,7 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -6984,7 +7082,7 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:78">
       <c r="B63" s="5" t="s">
         <v>54</v>
       </c>
@@ -7065,7 +7163,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:78">
       <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
@@ -7146,7 +7244,7 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:78">
       <c r="B65" s="5" t="s">
         <v>56</v>
       </c>
@@ -7227,7 +7325,7 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:78">
       <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
@@ -7308,7 +7406,7 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:78">
       <c r="B67" s="5" t="s">
         <v>58</v>
       </c>
@@ -7389,7 +7487,7 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:78">
       <c r="B68" s="5" t="s">
         <v>59</v>
       </c>
@@ -7470,7 +7568,7 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:78">
       <c r="B69" s="5" t="s">
         <v>60</v>
       </c>
@@ -7551,7 +7649,7 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:78">
       <c r="B70" s="5" t="s">
         <v>61</v>
       </c>
@@ -7632,7 +7730,7 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:78">
       <c r="B71" s="5" t="s">
         <v>62</v>
       </c>
@@ -7713,7 +7811,7 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:78">
       <c r="B72" s="8" t="s">
         <v>63</v>
       </c>
@@ -7794,7 +7892,7 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="10"/>
     </row>
-    <row r="75" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:78">
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
@@ -7877,7 +7975,7 @@
       <c r="BY75" s="3"/>
       <c r="BZ75" s="4"/>
     </row>
-    <row r="76" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:78">
       <c r="B76" s="5" t="s">
         <v>75</v>
       </c>
@@ -7958,7 +8056,7 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:78">
       <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
@@ -8039,7 +8137,7 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:78">
       <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
@@ -8120,7 +8218,7 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:78">
       <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
@@ -8209,215 +8307,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21">
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21">
       <c r="F4" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="26" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="I6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I7" s="29" t="s">
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="I7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I9" s="26" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="I9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I10" s="29" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="I10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="26" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="I12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="29" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="I13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="24"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="F15" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:78">
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
@@ -8500,7 +8598,7 @@
       <c r="BY18" s="3"/>
       <c r="BZ18" s="4"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:78">
       <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
@@ -8581,7 +8679,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:78">
       <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
@@ -8662,7 +8760,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:78">
       <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
@@ -8743,7 +8841,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:78">
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
@@ -8824,7 +8922,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:78">
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
@@ -8905,7 +9003,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:78">
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
@@ -8986,7 +9084,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:78">
       <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
@@ -9067,7 +9165,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:78">
       <c r="B26" s="5" t="s">
         <v>101</v>
       </c>
@@ -9148,7 +9246,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:78">
       <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
@@ -9229,7 +9327,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:78">
       <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
@@ -9310,7 +9408,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:78">
       <c r="B29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9391,7 +9489,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:78">
       <c r="B30" s="5" t="s">
         <v>105</v>
       </c>
@@ -9472,7 +9570,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:78">
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -9553,7 +9651,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:78">
       <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
@@ -9634,7 +9732,7 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="10"/>
     </row>
-    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:78">
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
@@ -9717,7 +9815,7 @@
       <c r="BY35" s="3"/>
       <c r="BZ35" s="4"/>
     </row>
-    <row r="36" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:78">
       <c r="B36" s="5" t="s">
         <v>111</v>
       </c>
@@ -9798,7 +9896,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:78">
       <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
@@ -9879,7 +9977,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:78">
       <c r="B38" s="5" t="s">
         <v>113</v>
       </c>
@@ -9960,7 +10058,7 @@
       <c r="BY38" s="6"/>
       <c r="BZ38" s="7"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:78">
       <c r="B39" s="5" t="s">
         <v>114</v>
       </c>
@@ -10041,7 +10139,7 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:78">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -10120,7 +10218,7 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:78">
       <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
@@ -10203,7 +10301,7 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:78">
       <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
@@ -10284,7 +10382,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:78">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -10365,7 +10463,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:78">
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
@@ -10446,7 +10544,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:78">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -10525,7 +10623,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:78">
       <c r="B46" s="5" t="s">
         <v>118</v>
       </c>
@@ -10608,7 +10706,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:78">
       <c r="B47" s="5" t="s">
         <v>116</v>
       </c>
@@ -10689,7 +10787,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:78">
       <c r="B48" s="5" t="s">
         <v>119</v>
       </c>
@@ -10770,7 +10868,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:78">
       <c r="B49" s="5" t="s">
         <v>120</v>
       </c>
@@ -10851,7 +10949,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:78">
       <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
@@ -10932,7 +11030,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:78">
       <c r="B51" s="5" t="s">
         <v>43</v>
       </c>
@@ -11013,7 +11111,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:78">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -11092,24 +11190,24 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:78">
       <c r="B53" s="5"/>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -11175,25 +11273,25 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:78">
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25" t="s">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -11258,42 +11356,42 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:78">
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="20" t="s">
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="21" t="s">
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="22" t="s">
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
@@ -11345,42 +11443,42 @@
       <c r="BY55" s="6"/>
       <c r="BZ55" s="7"/>
     </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:78">
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20" t="s">
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="21" t="s">
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="22" t="s">
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
@@ -11432,17 +11530,17 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="7"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:78">
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -11513,25 +11611,25 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="7"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:78">
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -11596,42 +11694,42 @@
       <c r="BY58" s="6"/>
       <c r="BZ58" s="7"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:78">
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="20" t="s">
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="21" t="s">
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="22" t="s">
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
@@ -11683,42 +11781,42 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:78">
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20" t="s">
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="21" t="s">
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="22" t="s">
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
@@ -11770,17 +11868,17 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:78">
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -11851,16 +11949,16 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -11932,16 +12030,16 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:78">
       <c r="B63" s="5"/>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -12013,7 +12111,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:78">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -12094,17 +12192,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I4:U5"/>
-    <mergeCell ref="I6:U6"/>
-    <mergeCell ref="I7:U8"/>
-    <mergeCell ref="I9:U9"/>
-    <mergeCell ref="I10:U11"/>
-    <mergeCell ref="I12:U12"/>
-    <mergeCell ref="I13:U14"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:P60"/>
+    <mergeCell ref="Q60:V60"/>
+    <mergeCell ref="W60:AB60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="E59:J59"/>
     <mergeCell ref="K59:P59"/>
     <mergeCell ref="Q59:V59"/>
@@ -12120,13 +12214,17 @@
     <mergeCell ref="D57:I57"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:O58"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:P60"/>
-    <mergeCell ref="Q60:V60"/>
-    <mergeCell ref="W60:AB60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I12:U12"/>
+    <mergeCell ref="I13:U14"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I4:U5"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="I7:U8"/>
+    <mergeCell ref="I9:U9"/>
+    <mergeCell ref="I10:U11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12134,2375 +12232,260 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:BZ34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="2.625" style="6"/>
+    <col min="2" max="2" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="6"/>
+    <col min="5" max="5" width="84" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3" t="s">
+      <c r="E5" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" s="39"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="4"/>
-    </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="6"/>
-      <c r="BW5" s="6"/>
-      <c r="BX5" s="6"/>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="7"/>
-    </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="6"/>
-      <c r="BS6" s="6"/>
-      <c r="BT6" s="6"/>
-      <c r="BU6" s="6"/>
-      <c r="BV6" s="6"/>
-      <c r="BW6" s="6"/>
-      <c r="BX6" s="6"/>
-      <c r="BY6" s="6"/>
-      <c r="BZ6" s="7"/>
-    </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="7"/>
-    </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
-      <c r="BU8" s="6"/>
-      <c r="BV8" s="6"/>
-      <c r="BW8" s="6"/>
-      <c r="BX8" s="6"/>
-      <c r="BY8" s="6"/>
-      <c r="BZ8" s="7"/>
-    </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="7"/>
-    </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="7"/>
-    </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="6"/>
-      <c r="BH11" s="6"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="6"/>
-      <c r="BO11" s="6"/>
-      <c r="BP11" s="6"/>
-      <c r="BQ11" s="6"/>
-      <c r="BR11" s="6"/>
-      <c r="BS11" s="6"/>
-      <c r="BT11" s="6"/>
-      <c r="BU11" s="6"/>
-      <c r="BV11" s="6"/>
-      <c r="BW11" s="6"/>
-      <c r="BX11" s="6"/>
-      <c r="BY11" s="6"/>
-      <c r="BZ11" s="7"/>
-    </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="9"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="9"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="9"/>
-      <c r="BV12" s="9"/>
-      <c r="BW12" s="9"/>
-      <c r="BX12" s="9"/>
-      <c r="BY12" s="9"/>
-      <c r="BZ12" s="10"/>
-    </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="4"/>
-    </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="6"/>
-      <c r="BH16" s="6"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="6"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="6"/>
-      <c r="BN16" s="6"/>
-      <c r="BO16" s="6"/>
-      <c r="BP16" s="6"/>
-      <c r="BQ16" s="6"/>
-      <c r="BR16" s="6"/>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="6"/>
-      <c r="BU16" s="6"/>
-      <c r="BV16" s="6"/>
-      <c r="BW16" s="6"/>
-      <c r="BX16" s="6"/>
-      <c r="BY16" s="6"/>
-      <c r="BZ16" s="7"/>
-    </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="6"/>
-      <c r="BU17" s="6"/>
-      <c r="BV17" s="6"/>
-      <c r="BW17" s="6"/>
-      <c r="BX17" s="6"/>
-      <c r="BY17" s="6"/>
-      <c r="BZ17" s="7"/>
-    </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="6"/>
-      <c r="BU18" s="6"/>
-      <c r="BV18" s="6"/>
-      <c r="BW18" s="6"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="6"/>
-      <c r="BZ18" s="7"/>
-    </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BP19" s="6"/>
-      <c r="BQ19" s="6"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
-      <c r="BV19" s="6"/>
-      <c r="BW19" s="6"/>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6"/>
-      <c r="BZ19" s="7"/>
-    </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="7"/>
-    </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-      <c r="BQ21" s="6"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
-      <c r="BU21" s="6"/>
-      <c r="BV21" s="6"/>
-      <c r="BW21" s="6"/>
-      <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="7"/>
-    </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-      <c r="BL22" s="6"/>
-      <c r="BM22" s="6"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="6"/>
-      <c r="BP22" s="6"/>
-      <c r="BQ22" s="6"/>
-      <c r="BR22" s="6"/>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="6"/>
-      <c r="BU22" s="6"/>
-      <c r="BV22" s="6"/>
-      <c r="BW22" s="6"/>
-      <c r="BX22" s="6"/>
-      <c r="BY22" s="6"/>
-      <c r="BZ22" s="7"/>
-    </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
-      <c r="BL23" s="6"/>
-      <c r="BM23" s="6"/>
-      <c r="BN23" s="6"/>
-      <c r="BO23" s="6"/>
-      <c r="BP23" s="6"/>
-      <c r="BQ23" s="6"/>
-      <c r="BR23" s="6"/>
-      <c r="BS23" s="6"/>
-      <c r="BT23" s="6"/>
-      <c r="BU23" s="6"/>
-      <c r="BV23" s="6"/>
-      <c r="BW23" s="6"/>
-      <c r="BX23" s="6"/>
-      <c r="BY23" s="6"/>
-      <c r="BZ23" s="7"/>
-    </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="6"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
-      <c r="BQ24" s="6"/>
-      <c r="BR24" s="6"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="6"/>
-      <c r="BU24" s="6"/>
-      <c r="BV24" s="6"/>
-      <c r="BW24" s="6"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="6"/>
-      <c r="BZ24" s="7"/>
-    </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="6"/>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="6"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="6"/>
-      <c r="BP25" s="6"/>
-      <c r="BQ25" s="6"/>
-      <c r="BR25" s="6"/>
-      <c r="BS25" s="6"/>
-      <c r="BT25" s="6"/>
-      <c r="BU25" s="6"/>
-      <c r="BV25" s="6"/>
-      <c r="BW25" s="6"/>
-      <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
-      <c r="BZ25" s="7"/>
-    </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
-      <c r="BG26" s="6"/>
-      <c r="BH26" s="6"/>
-      <c r="BI26" s="6"/>
-      <c r="BJ26" s="6"/>
-      <c r="BK26" s="6"/>
-      <c r="BL26" s="6"/>
-      <c r="BM26" s="6"/>
-      <c r="BN26" s="6"/>
-      <c r="BO26" s="6"/>
-      <c r="BP26" s="6"/>
-      <c r="BQ26" s="6"/>
-      <c r="BR26" s="6"/>
-      <c r="BS26" s="6"/>
-      <c r="BT26" s="6"/>
-      <c r="BU26" s="6"/>
-      <c r="BV26" s="6"/>
-      <c r="BW26" s="6"/>
-      <c r="BX26" s="6"/>
-      <c r="BY26" s="6"/>
-      <c r="BZ26" s="7"/>
-    </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-      <c r="BF27" s="6"/>
-      <c r="BG27" s="6"/>
-      <c r="BH27" s="6"/>
-      <c r="BI27" s="6"/>
-      <c r="BJ27" s="6"/>
-      <c r="BK27" s="6"/>
-      <c r="BL27" s="6"/>
-      <c r="BM27" s="6"/>
-      <c r="BN27" s="6"/>
-      <c r="BO27" s="6"/>
-      <c r="BP27" s="6"/>
-      <c r="BQ27" s="6"/>
-      <c r="BR27" s="6"/>
-      <c r="BS27" s="6"/>
-      <c r="BT27" s="6"/>
-      <c r="BU27" s="6"/>
-      <c r="BV27" s="6"/>
-      <c r="BW27" s="6"/>
-      <c r="BX27" s="6"/>
-      <c r="BY27" s="6"/>
-      <c r="BZ27" s="7"/>
-    </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
-      <c r="BG28" s="6"/>
-      <c r="BH28" s="6"/>
-      <c r="BI28" s="6"/>
-      <c r="BJ28" s="6"/>
-      <c r="BK28" s="6"/>
-      <c r="BL28" s="6"/>
-      <c r="BM28" s="6"/>
-      <c r="BN28" s="6"/>
-      <c r="BO28" s="6"/>
-      <c r="BP28" s="6"/>
-      <c r="BQ28" s="6"/>
-      <c r="BR28" s="6"/>
-      <c r="BS28" s="6"/>
-      <c r="BT28" s="6"/>
-      <c r="BU28" s="6"/>
-      <c r="BV28" s="6"/>
-      <c r="BW28" s="6"/>
-      <c r="BX28" s="6"/>
-      <c r="BY28" s="6"/>
-      <c r="BZ28" s="7"/>
-    </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
-      <c r="BG29" s="6"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="6"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="6"/>
-      <c r="BL29" s="6"/>
-      <c r="BM29" s="6"/>
-      <c r="BN29" s="6"/>
-      <c r="BO29" s="6"/>
-      <c r="BP29" s="6"/>
-      <c r="BQ29" s="6"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="6"/>
-      <c r="BU29" s="6"/>
-      <c r="BV29" s="6"/>
-      <c r="BW29" s="6"/>
-      <c r="BX29" s="6"/>
-      <c r="BY29" s="6"/>
-      <c r="BZ29" s="7"/>
-    </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="6"/>
-      <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
-      <c r="BN30" s="6"/>
-      <c r="BO30" s="6"/>
-      <c r="BP30" s="6"/>
-      <c r="BQ30" s="6"/>
-      <c r="BR30" s="6"/>
-      <c r="BS30" s="6"/>
-      <c r="BT30" s="6"/>
-      <c r="BU30" s="6"/>
-      <c r="BV30" s="6"/>
-      <c r="BW30" s="6"/>
-      <c r="BX30" s="6"/>
-      <c r="BY30" s="6"/>
-      <c r="BZ30" s="7"/>
-    </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
-      <c r="BH31" s="6"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="6"/>
-      <c r="BK31" s="6"/>
-      <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
-      <c r="BU31" s="6"/>
-      <c r="BV31" s="6"/>
-      <c r="BW31" s="6"/>
-      <c r="BX31" s="6"/>
-      <c r="BY31" s="6"/>
-      <c r="BZ31" s="7"/>
-    </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
-      <c r="BH32" s="6"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="6"/>
-      <c r="BK32" s="6"/>
-      <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
-      <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="6"/>
-      <c r="BQ32" s="6"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="6"/>
-      <c r="BT32" s="6"/>
-      <c r="BU32" s="6"/>
-      <c r="BV32" s="6"/>
-      <c r="BW32" s="6"/>
-      <c r="BX32" s="6"/>
-      <c r="BY32" s="6"/>
-      <c r="BZ32" s="7"/>
-    </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="6"/>
-      <c r="BL33" s="6"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="6"/>
-      <c r="BO33" s="6"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="6"/>
-      <c r="BU33" s="6"/>
-      <c r="BV33" s="6"/>
-      <c r="BW33" s="6"/>
-      <c r="BX33" s="6"/>
-      <c r="BY33" s="6"/>
-      <c r="BZ33" s="7"/>
-    </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
-      <c r="AU34" s="9"/>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="9"/>
-      <c r="AZ34" s="9"/>
-      <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-      <c r="BD34" s="9"/>
-      <c r="BE34" s="9"/>
-      <c r="BF34" s="9"/>
-      <c r="BG34" s="9"/>
-      <c r="BH34" s="9"/>
-      <c r="BI34" s="9"/>
-      <c r="BJ34" s="9"/>
-      <c r="BK34" s="9"/>
-      <c r="BL34" s="9"/>
-      <c r="BM34" s="9"/>
-      <c r="BN34" s="9"/>
-      <c r="BO34" s="9"/>
-      <c r="BP34" s="9"/>
-      <c r="BQ34" s="9"/>
-      <c r="BR34" s="9"/>
-      <c r="BS34" s="9"/>
-      <c r="BT34" s="9"/>
-      <c r="BU34" s="9"/>
-      <c r="BV34" s="9"/>
-      <c r="BW34" s="9"/>
-      <c r="BX34" s="9"/>
-      <c r="BY34" s="9"/>
-      <c r="BZ34" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14511,24 +12494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:78">
       <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:78">
       <c r="B4" s="17" t="s">
         <v>230</v>
       </c>
@@ -14609,7 +12592,7 @@
       <c r="BY4" s="17"/>
       <c r="BZ4" s="17"/>
     </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:78">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -14692,7 +12675,7 @@
       <c r="BY5" s="3"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:78">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -14775,7 +12758,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:78">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -14858,7 +12841,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:78">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -14941,7 +12924,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:78">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -15024,7 +13007,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:78">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -15107,7 +13090,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:78">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -15190,7 +13173,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:78">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -15273,7 +13256,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:78">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -15356,7 +13339,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:78">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -15439,7 +13422,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:78">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -15522,7 +13505,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:78">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -15605,7 +13588,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:78">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -15688,7 +13671,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:78">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -15771,7 +13754,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:78">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -15854,7 +13837,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:78">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -15937,7 +13920,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:78">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -16020,7 +14003,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:78">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -16103,7 +14086,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:78">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -16186,7 +14169,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:78">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -16269,7 +14252,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:78">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -16352,7 +14335,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:78">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -16435,7 +14418,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:78">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -16518,7 +14501,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:78">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -16601,7 +14584,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:78">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -16684,7 +14667,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:78">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -16767,7 +14750,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:78">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -16850,7 +14833,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:78">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -16933,7 +14916,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:78">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -17016,7 +14999,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:78">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -17099,7 +15082,7 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="10"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:78">
       <c r="B37" s="17" t="s">
         <v>202</v>
       </c>
@@ -17180,7 +15163,7 @@
       <c r="BY37" s="17"/>
       <c r="BZ37" s="17"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:78">
       <c r="B38" s="13" t="s">
         <v>195</v>
       </c>
@@ -17263,7 +15246,7 @@
       <c r="BY38" s="3"/>
       <c r="BZ38" s="4"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:78">
       <c r="B39" s="15" t="s">
         <v>186</v>
       </c>
@@ -17346,7 +15329,7 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:78">
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
         <v>188</v>
@@ -17429,7 +15412,7 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:78">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
@@ -17512,7 +15495,7 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:78">
       <c r="B42" s="15" t="s">
         <v>190</v>
       </c>
@@ -17595,7 +15578,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:78">
       <c r="B43" s="15"/>
       <c r="C43" s="16" t="s">
         <v>191</v>
@@ -17678,7 +15661,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:78">
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
@@ -17761,7 +15744,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:78">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -17844,7 +15827,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:78">
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -17927,7 +15910,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:78">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -18010,7 +15993,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:78">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -18093,7 +16076,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:78">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -18176,7 +16159,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:78">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -18259,7 +16242,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:78">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -18342,7 +16325,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:78">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -18425,7 +16408,7 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:78">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -18508,7 +16491,7 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:78">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -18591,7 +16574,7 @@
       <c r="BY54" s="9"/>
       <c r="BZ54" s="10"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:78">
       <c r="B57" s="17" t="s">
         <v>231</v>
       </c>
@@ -18672,7 +16655,7 @@
       <c r="BY57" s="17"/>
       <c r="BZ57" s="17"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:78">
       <c r="B58" s="2" t="s">
         <v>205</v>
       </c>
@@ -18755,7 +16738,7 @@
       <c r="BY58" s="3"/>
       <c r="BZ58" s="4"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:78">
       <c r="B59" s="5" t="s">
         <v>206</v>
       </c>
@@ -18838,7 +16821,7 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:78">
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
         <v>207</v>
@@ -18921,7 +16904,7 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:78">
       <c r="B61" s="5" t="s">
         <v>223</v>
       </c>
@@ -19004,7 +16987,7 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
         <v>237</v>
@@ -19087,7 +17070,7 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:78">
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
         <v>224</v>
@@ -19170,7 +17153,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:78">
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
@@ -19253,7 +17236,7 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:78">
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -19336,7 +17319,7 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:78">
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -19419,7 +17402,7 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:78">
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -19502,7 +17485,7 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:78">
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -19585,7 +17568,7 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:78">
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -19668,7 +17651,7 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:78">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -19751,7 +17734,7 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:78">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -19834,7 +17817,7 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:78">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -19917,7 +17900,7 @@
       <c r="BY72" s="6"/>
       <c r="BZ72" s="7"/>
     </row>
-    <row r="73" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:78">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -20000,7 +17983,7 @@
       <c r="BY73" s="6"/>
       <c r="BZ73" s="7"/>
     </row>
-    <row r="74" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:78">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -20083,8 +18066,8 @@
       <c r="BY74" s="6"/>
       <c r="BZ74" s="7"/>
     </row>
-    <row r="75" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+    <row r="75" spans="2:78">
+      <c r="B75" s="18" t="s">
         <v>247</v>
       </c>
       <c r="C75" s="6"/>
@@ -20164,7 +18147,7 @@
       <c r="BY75" s="6"/>
       <c r="BZ75" s="7"/>
     </row>
-    <row r="76" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:78">
       <c r="B76" s="5" t="s">
         <v>248</v>
       </c>
@@ -20247,7 +18230,7 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:78">
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
         <v>249</v>
@@ -20330,7 +18313,7 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:78">
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
         <v>250</v>
@@ -20411,7 +18394,7 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:78">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -20490,7 +18473,7 @@
       <c r="BY79" s="6"/>
       <c r="BZ79" s="7"/>
     </row>
-    <row r="80" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:78">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -20569,7 +18552,7 @@
       <c r="BY80" s="6"/>
       <c r="BZ80" s="7"/>
     </row>
-    <row r="81" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:78">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -20648,7 +18631,7 @@
       <c r="BY81" s="6"/>
       <c r="BZ81" s="7"/>
     </row>
-    <row r="82" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:78">
       <c r="B82" s="5" t="s">
         <v>208</v>
       </c>
@@ -20729,7 +18712,7 @@
       <c r="BY82" s="6"/>
       <c r="BZ82" s="7"/>
     </row>
-    <row r="83" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:78">
       <c r="B83" s="5" t="s">
         <v>209</v>
       </c>
@@ -20810,7 +18793,7 @@
       <c r="BY83" s="6"/>
       <c r="BZ83" s="7"/>
     </row>
-    <row r="84" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:78">
       <c r="B84" s="5" t="s">
         <v>210</v>
       </c>
@@ -20891,7 +18874,7 @@
       <c r="BY84" s="6"/>
       <c r="BZ84" s="7"/>
     </row>
-    <row r="85" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:78">
       <c r="B85" s="5" t="s">
         <v>211</v>
       </c>
@@ -20972,7 +18955,7 @@
       <c r="BY85" s="6"/>
       <c r="BZ85" s="7"/>
     </row>
-    <row r="86" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:78">
       <c r="B86" s="5" t="s">
         <v>212</v>
       </c>
@@ -21053,7 +19036,7 @@
       <c r="BY86" s="6"/>
       <c r="BZ86" s="7"/>
     </row>
-    <row r="87" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:78">
       <c r="B87" s="5" t="s">
         <v>213</v>
       </c>
@@ -21134,7 +19117,7 @@
       <c r="BY87" s="6"/>
       <c r="BZ87" s="7"/>
     </row>
-    <row r="88" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:78">
       <c r="B88" s="5" t="s">
         <v>214</v>
       </c>
@@ -21215,7 +19198,7 @@
       <c r="BY88" s="6"/>
       <c r="BZ88" s="7"/>
     </row>
-    <row r="89" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:78">
       <c r="B89" s="5" t="s">
         <v>215</v>
       </c>
@@ -21296,7 +19279,7 @@
       <c r="BY89" s="6"/>
       <c r="BZ89" s="7"/>
     </row>
-    <row r="90" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:78">
       <c r="B90" s="5" t="s">
         <v>216</v>
       </c>
@@ -21377,7 +19360,7 @@
       <c r="BY90" s="6"/>
       <c r="BZ90" s="7"/>
     </row>
-    <row r="91" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:78">
       <c r="B91" s="5" t="s">
         <v>217</v>
       </c>
@@ -21458,7 +19441,7 @@
       <c r="BY91" s="6"/>
       <c r="BZ91" s="7"/>
     </row>
-    <row r="92" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:78">
       <c r="B92" s="5" t="s">
         <v>43</v>
       </c>
@@ -21539,7 +19522,7 @@
       <c r="BY92" s="6"/>
       <c r="BZ92" s="7"/>
     </row>
-    <row r="93" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:78">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -21618,7 +19601,7 @@
       <c r="BY93" s="6"/>
       <c r="BZ93" s="7"/>
     </row>
-    <row r="94" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:78">
       <c r="B94" s="5" t="s">
         <v>218</v>
       </c>
@@ -21699,7 +19682,7 @@
       <c r="BY94" s="6"/>
       <c r="BZ94" s="7"/>
     </row>
-    <row r="95" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:78">
       <c r="B95" s="5" t="s">
         <v>219</v>
       </c>
@@ -21780,7 +19763,7 @@
       <c r="BY95" s="6"/>
       <c r="BZ95" s="7"/>
     </row>
-    <row r="96" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:78">
       <c r="B96" s="5" t="s">
         <v>220</v>
       </c>
@@ -21861,7 +19844,7 @@
       <c r="BY96" s="6"/>
       <c r="BZ96" s="7"/>
     </row>
-    <row r="97" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:78">
       <c r="B97" s="5" t="s">
         <v>221</v>
       </c>
@@ -21942,7 +19925,7 @@
       <c r="BY97" s="6"/>
       <c r="BZ97" s="7"/>
     </row>
-    <row r="98" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:78">
       <c r="B98" s="8" t="s">
         <v>43</v>
       </c>
